--- a/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
+++ b/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9834F5AA-20B7-4FEE-BEEA-58C12D8CD924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="366" yWindow="366" windowWidth="12792" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>Whale Name (format SPYYMMDD-tag#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Location (lat long)</t>
   </si>
@@ -110,11 +108,20 @@
   <si>
     <t>Type</t>
   </si>
+  <si>
+    <t>Deployment ID (format SPYYMMDD-tag#</t>
+  </si>
+  <si>
+    <t>Must be a number only (no letters)</t>
+  </si>
+  <si>
+    <t>NOTE: top 4 lines are necessary for all deployments, section below is optional (see tag wiki for more details)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -167,17 +174,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,116 +475,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1015625" customWidth="1"/>
+    <col min="2" max="2" width="9.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.68359375" customWidth="1"/>
+    <col min="15" max="15" width="15.5234375" customWidth="1"/>
+    <col min="16" max="17" width="9.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1"/>
       <c r="O11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1"/>
       <c r="O12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" t="s">
-        <v>7</v>
-      </c>
       <c r="R12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1"/>
       <c r="O13">
         <v>1</v>
@@ -586,10 +602,10 @@
         <v>2.5995370370370369E-3</v>
       </c>
       <c r="R13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1"/>
       <c r="O14">
         <v>1</v>
@@ -601,10 +617,10 @@
         <v>6.7511574074074071E-3</v>
       </c>
       <c r="R14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1"/>
       <c r="O15">
         <v>5</v>
@@ -616,381 +632,381 @@
         <v>7.0809027777777788E-3</v>
       </c>
       <c r="R15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C140" s="1"/>
     </row>
   </sheetData>
@@ -1004,5 +1020,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
+++ b/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9834F5AA-20B7-4FEE-BEEA-58C12D8CD924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE71F5-2800-4126-AA7D-2DD1D81EB3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="12792" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Location (lat long)</t>
   </si>
@@ -117,14 +126,33 @@
   <si>
     <t>NOTE: top 4 lines are necessary for all deployments, section below is optional (see tag wiki for more details)</t>
   </si>
+  <si>
+    <t>Time Style</t>
+  </si>
+  <si>
+    <t>Time style</t>
+  </si>
+  <si>
+    <t>VideoTime</t>
+  </si>
+  <si>
+    <t>Embedded</t>
+  </si>
+  <si>
+    <t>Either "Embedded" (for timestamps from the data written directly on the video frame that) or "VideoTime" (for the time since the start of the video)</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="h:mm:ss.000;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -174,20 +202,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -489,7 +518,7 @@
     <col min="3" max="3" width="9.1015625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.68359375" customWidth="1"/>
     <col min="15" max="15" width="15.5234375" customWidth="1"/>
-    <col min="16" max="17" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -525,84 +554,84 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="H6" t="s">
+      <c r="D7" s="6"/>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1"/>
       <c r="O11" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1"/>
       <c r="O12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1"/>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2.5740740740740741E-3</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2.5995370370370369E-3</v>
+      <c r="O13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -611,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>6.7488425925925936E-3</v>
+        <v>2.5740740740740741E-3</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.7511574074074071E-3</v>
+        <v>2.5995370370370369E-3</v>
       </c>
       <c r="R14" t="s">
         <v>12</v>
@@ -623,13 +652,13 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1"/>
       <c r="O15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>7.0731828703703712E-3</v>
+        <v>6.7488425925925936E-3</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.0809027777777788E-3</v>
+        <v>6.7511574074074071E-3</v>
       </c>
       <c r="R15" t="s">
         <v>12</v>
@@ -637,55 +666,109 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>7.0731828703703712E-3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>7.0809027777777788E-3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.57142854166666668</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.57145392361111114</v>
+      </c>
+      <c r="R20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.57213381944444441</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.57216575231481481</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
@@ -769,8 +852,8 @@
     <row r="59" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" s="1"/>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="1"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1"/>
@@ -1009,10 +1092,13 @@
     <row r="140" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C140" s="1"/>
     </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C141" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C2">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1020,6 +1106,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
+++ b/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE71F5-2800-4126-AA7D-2DD1D81EB3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3F2305-AD40-4574-BFA0-D4958B21965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Location (lat long)</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>tagnum</t>
-  </si>
-  <si>
-    <t>MM:SS.FF (FF = two digit frame number, .00 = first frame in a "second")</t>
   </si>
   <si>
     <t>Video number</t>
@@ -144,6 +141,12 @@
   <si>
     <t>Surface</t>
   </si>
+  <si>
+    <t>Old style: MM:SS.FF (FF = two digit frame number, .00 = first frame in a "second")</t>
+  </si>
+  <si>
+    <t>See "Time style" guidelines for both time formats in Column O</t>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +155,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="h:mm:ss.000;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss.000;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -210,13 +213,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,36 +508,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.1015625" customWidth="1"/>
-    <col min="2" max="2" width="9.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" customWidth="1"/>
-    <col min="15" max="15" width="15.5234375" customWidth="1"/>
-    <col min="16" max="17" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.53125" customWidth="1"/>
+    <col min="16" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -542,100 +545,110 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2"/>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="1"/>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="O11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
         <v>18</v>
       </c>
-      <c r="P11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="O12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" t="s">
-        <v>6</v>
-      </c>
       <c r="R13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="O14">
         <v>1</v>
       </c>
@@ -646,11 +659,12 @@
         <v>2.5995370370370369E-3</v>
       </c>
       <c r="R14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="O15">
         <v>1</v>
       </c>
@@ -661,11 +675,12 @@
         <v>6.7511574074074071E-3</v>
       </c>
       <c r="R15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="O16">
         <v>5</v>
       </c>
@@ -676,423 +691,458 @@
         <v>7.0809027777777788E-3</v>
       </c>
       <c r="R16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="1"/>
-      <c r="O18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="1"/>
-      <c r="O19" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="1"/>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
       <c r="O20">
         <v>4</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="5">
         <v>0.57142854166666668</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="5">
         <v>0.57145392361111114</v>
       </c>
       <c r="R20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="O21">
         <v>4</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <v>0.57213381944444441</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="5">
         <v>0.57216575231481481</v>
       </c>
       <c r="R21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C141" s="1"/>
     </row>
   </sheetData>

--- a/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
+++ b/CATSMatlabTools/templates/spYYMMDD-tag#.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9834F5AA-20B7-4FEE-BEEA-58C12D8CD924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3F2305-AD40-4574-BFA0-D4958B21965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="12792" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Location (lat long)</t>
   </si>
@@ -34,9 +43,6 @@
   </si>
   <si>
     <t>tagnum</t>
-  </si>
-  <si>
-    <t>MM:SS.FF (FF = two digit frame number, .00 = first frame in a "second")</t>
   </si>
   <si>
     <t>Video number</t>
@@ -117,14 +123,39 @@
   <si>
     <t>NOTE: top 4 lines are necessary for all deployments, section below is optional (see tag wiki for more details)</t>
   </si>
+  <si>
+    <t>Time Style</t>
+  </si>
+  <si>
+    <t>Time style</t>
+  </si>
+  <si>
+    <t>VideoTime</t>
+  </si>
+  <si>
+    <t>Embedded</t>
+  </si>
+  <si>
+    <t>Either "Embedded" (for timestamps from the data written directly on the video frame that) or "VideoTime" (for the time since the start of the video)</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Old style: MM:SS.FF (FF = two digit frame number, .00 = first frame in a "second")</t>
+  </si>
+  <si>
+    <t>See "Time style" guidelines for both time formats in Column O</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss.000;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -174,19 +205,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,36 +508,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.1015625" customWidth="1"/>
-    <col min="2" max="2" width="9.1015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.68359375" customWidth="1"/>
-    <col min="15" max="15" width="15.5234375" customWidth="1"/>
-    <col min="16" max="17" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.53125" customWidth="1"/>
+    <col min="16" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -513,506 +545,610 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5"/>
       <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="1"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="U10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="O11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="O12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q13" t="s">
         <v>5</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="1"/>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2.5740740740740741E-3</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2.5995370370370369E-3</v>
       </c>
       <c r="R13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14" s="1">
+        <v>2.5740740740740741E-3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2.5995370370370369E-3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
         <v>6.7488425925925936E-3</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q15" s="1">
         <v>6.7511574074074071E-3</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>7.0731828703703712E-3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>7.0809027777777788E-3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="1"/>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15" s="1">
-        <v>7.0731828703703712E-3</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>7.0809027777777788E-3</v>
-      </c>
-      <c r="R15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.57142854166666668</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.57145392361111114</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.57213381944444441</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.57216575231481481</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C141" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C2">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1020,6 +1156,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>